--- a/output/table_IV.xlsx
+++ b/output/table_IV.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
   <si>
     <t>coef1_ols</t>
   </si>
@@ -50,15 +56,6 @@
     <t>sd2_infeasible</t>
   </si>
   <si>
-    <t>sigma_infeasible</t>
-  </si>
-  <si>
-    <t>df1_inf</t>
-  </si>
-  <si>
-    <t>df2_inf</t>
-  </si>
-  <si>
     <t>coef1_interactive</t>
   </si>
   <si>
@@ -69,15 +66,6 @@
   </si>
   <si>
     <t>sd2_interactive</t>
-  </si>
-  <si>
-    <t>sigma_interactive</t>
-  </si>
-  <si>
-    <t>df1_int</t>
-  </si>
-  <si>
-    <t>df2_int</t>
   </si>
   <si>
     <t>1</t>
@@ -217,22 +205,10 @@
       <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" t="n">
         <v>100.0</v>
@@ -240,17 +216,17 @@
       <c r="C2" t="n">
         <v>3.0</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.4198782853579148</v>
-      </c>
-      <c r="E2" t="n">
-        <v>3.3679202013936083</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.11526401792324846</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.1127244226197651</v>
+      <c r="D2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F2" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G2" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H2" t="e">
         <v>#N/A</v>
@@ -286,42 +262,30 @@
         <v>#N/A</v>
       </c>
       <c r="S2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W2" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.2006627990619752</v>
-      </c>
-      <c r="E3" t="n">
-        <v>3.447751041829595</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.0811781471266615</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.08374337781711477</v>
+        <v>19</v>
+      </c>
+      <c r="B3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F3" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G3" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H3" t="e">
         <v>#N/A</v>
@@ -357,42 +321,30 @@
         <v>#N/A</v>
       </c>
       <c r="S3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W3" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.400764285016975</v>
-      </c>
-      <c r="E4" t="n">
-        <v>3.4428992666417217</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.05468367945727439</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.053120569206848295</v>
+        <v>20</v>
+      </c>
+      <c r="B4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F4" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H4" t="e">
         <v>#N/A</v>
@@ -428,42 +380,30 @@
         <v>#N/A</v>
       </c>
       <c r="S4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W4" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.363550523184541</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.34756034193745</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.03775029038524302</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.038460586571301254</v>
+        <v>21</v>
+      </c>
+      <c r="B5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F5" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H5" t="e">
         <v>#N/A</v>
@@ -499,42 +439,30 @@
         <v>#N/A</v>
       </c>
       <c r="S5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W5" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.3696992803718162</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3.421856626203268</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.02329808084973817</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.023582018870483622</v>
+        <v>22</v>
+      </c>
+      <c r="B6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F6" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G6" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H6" t="e">
         <v>#N/A</v>
@@ -570,42 +498,30 @@
         <v>#N/A</v>
       </c>
       <c r="S6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W6" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="C7" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1.3871103810086103</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.4192640284977998</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.015459534241011538</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.015504093785126611</v>
+        <v>23</v>
+      </c>
+      <c r="B7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F7" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G7" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H7" t="e">
         <v>#N/A</v>
@@ -641,42 +557,30 @@
         <v>#N/A</v>
       </c>
       <c r="S7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W7" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.3463167544081396</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.3894234902132094</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.04468391012119916</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.04497381848103767</v>
+        <v>24</v>
+      </c>
+      <c r="B8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F8" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G8" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H8" t="e">
         <v>#N/A</v>
@@ -712,42 +616,30 @@
         <v>#N/A</v>
       </c>
       <c r="S8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W8" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="C9" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.3723297819822142</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.403732333638141</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.047532706339140904</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0474758894591033</v>
+        <v>25</v>
+      </c>
+      <c r="B9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F9" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G9" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H9" t="e">
         <v>#N/A</v>
@@ -783,42 +675,30 @@
         <v>#N/A</v>
       </c>
       <c r="S9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W9" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="C10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.3928376432154663</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.3945380154487688</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.046220170176118555</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.0459582993686267</v>
+        <v>26</v>
+      </c>
+      <c r="B10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F10" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G10" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H10" t="e">
         <v>#N/A</v>
@@ -854,42 +734,30 @@
         <v>#N/A</v>
       </c>
       <c r="S10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W10" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1.3952462332781892</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.395862239682098</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.04363598805994006</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.04331142054448833</v>
+        <v>27</v>
+      </c>
+      <c r="B11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F11" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G11" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H11" t="e">
         <v>#N/A</v>
@@ -925,42 +793,30 @@
         <v>#N/A</v>
       </c>
       <c r="S11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W11" t="e">
         <v>#N/A</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="C12" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.3961465587219073</v>
-      </c>
-      <c r="E12" t="n">
-        <v>3.397855995342452</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.03999239171215981</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.03971089267901512</v>
+        <v>28</v>
+      </c>
+      <c r="B12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="C12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="E12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="F12" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="G12" t="e">
+        <v>#N/A</v>
       </c>
       <c r="H12" t="e">
         <v>#N/A</v>
@@ -996,18 +852,6 @@
         <v>#N/A</v>
       </c>
       <c r="S12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W12" t="e">
         <v>#N/A</v>
       </c>
     </row>
